--- a/TestGit/src/main/java/com/qa/hs/keyword/scenarios/hubspot_Scenarios.xlsx
+++ b/TestGit/src/main/java/com/qa/hs/keyword/scenarios/hubspot_Scenarios.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya Borade\git\AutomationPriyanka\TestGit\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDE18067-42D3-44D6-8BE1-42C0B9FD2363}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C519A986-E61B-4EBD-8A1C-A7C3E4B6AEDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{989FAA8B-3D1C-49E0-82B5-8B1334BA5150}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestGit/src/main/java/com/qa/hs/keyword/scenarios/hubspot_Scenarios.xlsx
+++ b/TestGit/src/main/java/com/qa/hs/keyword/scenarios/hubspot_Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya Borade\git\AutomationPriyanka\TestGit\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C519A986-E61B-4EBD-8A1C-A7C3E4B6AEDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{675BF241-947A-489B-B987-E0068630B92F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{989FAA8B-3D1C-49E0-82B5-8B1334BA5150}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>test step</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>click</t>
-  </si>
-  <si>
-    <t>close browser</t>
-  </si>
-  <si>
-    <t>quit</t>
   </si>
   <si>
     <t>https://app.hubspot.com/</t>
@@ -478,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565139FF-EE5A-4240-B311-A58398253E68}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -553,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -567,26 +561,12 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
